--- a/coling2016/props/Ebates-cnn-results.xlsx
+++ b/coling2016/props/Ebates-cnn-results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="41040" yWindow="960" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="38640" yWindow="560" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>filter_size</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>Nan</t>
   </si>
 </sst>
 </file>
@@ -153,20 +156,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -182,29 +173,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -480,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:L14"/>
+      <selection activeCell="M6" sqref="M6:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -494,7 +473,7 @@
     <col min="6" max="6" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17">
+    <row r="1" spans="1:13" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +494,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="17">
+    <row r="2" spans="1:13" ht="17">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -536,7 +515,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="17">
+    <row r="4" spans="1:13" ht="17">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -555,11 +534,8 @@
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>20000</v>
       </c>
@@ -567,17 +543,13 @@
         <v>14</v>
       </c>
       <c r="F5">
+        <v>0.83915723873000003</v>
+      </c>
+      <c r="G5">
         <v>0.829531565493</v>
       </c>
-      <c r="I5">
-        <f>$F5*$I$4</f>
-        <v>82.953156549300004</v>
-      </c>
-      <c r="L5">
-        <v>82.953156549300004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="17">
+    </row>
+    <row r="6" spans="1:13" ht="17">
       <c r="A6">
         <v>40000</v>
       </c>
@@ -585,17 +557,26 @@
         <v>15</v>
       </c>
       <c r="F6">
+        <v>0.878184364587</v>
+      </c>
+      <c r="G6">
         <v>0.86462716881900004</v>
       </c>
-      <c r="I6">
-        <f t="shared" ref="I6:I14" si="0">$F6*$I$4</f>
-        <v>86.462716881900008</v>
+      <c r="J6">
+        <v>20000</v>
+      </c>
+      <c r="K6">
+        <v>0.83915723873000003</v>
       </c>
       <c r="L6">
-        <v>86.462716881900008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <f>K6*$L$6</f>
+        <v>83.915723873000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>70000</v>
       </c>
@@ -603,17 +584,26 @@
         <v>16</v>
       </c>
       <c r="F7">
+        <v>0.87802601849600004</v>
+      </c>
+      <c r="G7">
         <v>0.89717501438500002</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>89.717501438500008</v>
-      </c>
-      <c r="L7">
-        <v>89.717501438500008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="17">
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <v>30000</v>
+      </c>
+      <c r="K7">
+        <v>0.86308505690000004</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M20" si="0">K7*$L$6</f>
+        <v>86.308505690000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17">
       <c r="A8">
         <v>90000</v>
       </c>
@@ -621,17 +611,23 @@
         <v>17</v>
       </c>
       <c r="F8">
+        <v>0.77959223072799999</v>
+      </c>
+      <c r="G8">
         <v>0.76732054123000004</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>76.732054122999998</v>
-      </c>
-      <c r="L8">
-        <v>76.732054122999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="J8">
+        <v>40000</v>
+      </c>
+      <c r="K8">
+        <v>0.878184364587</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>87.818436458700006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>110000</v>
       </c>
@@ -639,17 +635,23 @@
         <v>18</v>
       </c>
       <c r="F9">
+        <v>0.93806871401299996</v>
+      </c>
+      <c r="G9">
         <v>0.93094244665600001</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>93.094244665600002</v>
-      </c>
-      <c r="L9">
-        <v>93.094244665600002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="17">
+      <c r="J9">
+        <v>70000</v>
+      </c>
+      <c r="K9">
+        <v>0.87802601849600004</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>87.802601849600009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17">
       <c r="A10">
         <v>120000</v>
       </c>
@@ -657,17 +659,20 @@
         <v>19</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f>$F10*$I$4</f>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.90401965502399995</v>
+      </c>
+      <c r="J10">
+        <v>80000</v>
+      </c>
+      <c r="K10">
+        <v>0.87657635327100003</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>87.657635327099996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>180000</v>
       </c>
@@ -675,20 +680,26 @@
         <v>20</v>
       </c>
       <c r="F11">
+        <v>0.92605434475000004</v>
+      </c>
+      <c r="G11">
         <v>0.92478063968299995</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>25</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>92.478063968299992</v>
-      </c>
-      <c r="L11">
-        <v>92.478063968299992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="J11">
+        <v>90000</v>
+      </c>
+      <c r="K11">
+        <v>0.77959223072799999</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>77.9592230728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>210000</v>
       </c>
@@ -696,17 +707,23 @@
         <v>21</v>
       </c>
       <c r="F12">
+        <v>0.880859031189</v>
+      </c>
+      <c r="G12">
         <v>0.87941877770499999</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>87.9418777705</v>
-      </c>
-      <c r="L12">
-        <v>87.9418777705</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="17">
+      <c r="J12">
+        <v>100000</v>
+      </c>
+      <c r="K12">
+        <v>0.82763087984499994</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>82.76308798449999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17">
       <c r="A13">
         <v>250000</v>
       </c>
@@ -714,17 +731,23 @@
         <v>22</v>
       </c>
       <c r="F13">
+        <v>0.90432273126399998</v>
+      </c>
+      <c r="G13">
         <v>0.89932004274400001</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>89.932004274400001</v>
-      </c>
-      <c r="L13">
-        <v>89.932004274400001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="J13">
+        <v>110000</v>
+      </c>
+      <c r="K13">
+        <v>0.93806871401299996</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>93.8068714013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>260000</v>
       </c>
@@ -732,31 +755,103 @@
         <v>23</v>
       </c>
       <c r="F14">
+        <v>0.904975038733</v>
+      </c>
+      <c r="G14">
         <v>0.89103115854699999</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>89.103115854699993</v>
-      </c>
-      <c r="L14">
-        <v>89.103115854699993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="17">
+      <c r="J14">
+        <v>120000</v>
+      </c>
+      <c r="K14">
+        <v>0.90401965502399995</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>90.401965502399989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="J15">
+        <v>130000</v>
+      </c>
+      <c r="K15">
+        <v>0.93128839386399997</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>93.128839386400003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17">
       <c r="B16" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="17">
+      <c r="J16">
+        <v>140000</v>
+      </c>
+      <c r="K16">
+        <v>0.93529972408299999</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>93.529972408299997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="J17">
+        <v>180000</v>
+      </c>
+      <c r="K17">
+        <v>0.92605434475000004</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>92.60543447500001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="17">
       <c r="B18" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="17">
+      <c r="J18">
+        <v>210000</v>
+      </c>
+      <c r="K18">
+        <v>0.880859031189</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>88.085903118900006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="J19">
+        <v>250000</v>
+      </c>
+      <c r="K19">
+        <v>0.90432273126399998</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>90.432273126399991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17">
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="J20">
+        <v>260000</v>
+      </c>
+      <c r="K20">
+        <v>0.904975038733</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>90.497503873300005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17">
+    <row r="22" spans="1:13" ht="17">
       <c r="A22">
         <v>30000</v>
       </c>
@@ -764,16 +859,22 @@
       <c r="D22">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="F22">
+        <v>0.86308505690000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>80000</v>
       </c>
       <c r="D23">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="17">
+      <c r="F23">
+        <v>0.87657635327100003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17">
       <c r="A24">
         <v>100000</v>
       </c>
@@ -781,26 +882,35 @@
       <c r="D24">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="F24">
+        <v>0.82763087984499994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>130000</v>
       </c>
       <c r="D25">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="F25">
+        <v>0.93128839386399997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>140000</v>
       </c>
       <c r="D26">
         <v>7</v>
       </c>
+      <c r="F26">
+        <v>0.93529972408299999</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="G5:G19">
-    <sortCondition ref="G5"/>
+  <sortState ref="J6:K20">
+    <sortCondition ref="J6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
